--- a/Screeners/NH2021-12.xlsx
+++ b/Screeners/NH2021-12.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-02" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-03" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -823,4 +824,140 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MGPI </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SNPS </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSEM </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EGP </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOL </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BXC </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EIX </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BLDR </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SHW </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAND </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Screeners/NH2021-12.xlsx
+++ b/Screeners/NH2021-12.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-02" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-03" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-07" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -960,4 +961,420 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TACO </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GCP </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPIX </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CBAH </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EVTC </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLIN </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSEM </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOL </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GRBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JXN </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSD </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AHI </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FAST </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OGE </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EGP </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PG </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FR </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TPH </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HD </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BLDR </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBV </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AAON </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STAG </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEP </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEE </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABT </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GWW </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACI </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPT </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EIX </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSX </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> REXR </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AJG </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ED </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNP </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BXC </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Screeners/NH2021-12.xlsx
+++ b/Screeners/NH2021-12.xlsx
@@ -10,6 +10,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-02" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-03" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-07" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-08" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-09" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-10" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1377,4 +1380,1682 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TACO </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRUP </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STRN </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SIMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LWLG </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SRTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FR </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRVL </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CODI </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOL </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BLDR </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSGS </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FWRD </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EVTC </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AOSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSD </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LSI </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STAG </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MAA </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JNPR </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AWI </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AAON </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RMBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSEM </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EGP </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AVGO </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ODFL </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CARS </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AZO </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PSTG </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NVEE </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MXL </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GRBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KEYS </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APRN </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBT </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CIEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CARG </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CWK </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXTR </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WSO </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AAPL </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ON </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CXP </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSV </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NXPI </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MGPI </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLD </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SKY </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPT </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GMS </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ORLY </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EIX </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEE </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UFPI </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PG </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACI </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> REXR </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TER </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PSA </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DRE </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LOW </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CME </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TU </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KNX </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVX </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FAST </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCHP </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLIN </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NFH </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLAB </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LWLG </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNFI </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TACO </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SIMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLIN </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOL </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> YELL </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JWEL </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CARS </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRUP </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCK </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GCP </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRG </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRVL </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CODI </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EVTC </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LXP </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACC </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RMBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AAON </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MXL </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSV </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MAA </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FHI </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ICL </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LSI </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AOSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ERF </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCS </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AAPL </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FR </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCD </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SKY </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> REXR </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LOW </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PG </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AWI </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IQV </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BMI </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VG </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNH </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SITM </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TREX </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KEYS </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WSO </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PSTG </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HTA </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CIEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLAB </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BSIG </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PI </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JWEL </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVS </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LWLG </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPT </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXTR </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOL </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CBAH </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CENQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DHX </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AOSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLIN </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CODI </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PSA </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OXBR </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FWRD </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSV </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RMBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NGG </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCS </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AAPL </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBV </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MAA </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCHP </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ROIV </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PG </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITMR </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PKI </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LOW </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WMS </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FDS </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCD </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRG </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Screeners/NH2021-12.xlsx
+++ b/Screeners/NH2021-12.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-08" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-09" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-10" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-12" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3058,4 +3059,350 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SGMA </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ORCL </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AVGO </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COST </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LWLG </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CIEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CODI </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FWRD </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JBL </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HBP </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CWK </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHRW </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNC </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JNPR </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOL </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVS </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MLM </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DHX </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLIN </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSGS </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LPX </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AAPL </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GRBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DHI </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEP </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBV </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PSA </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTAS </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MSI </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCK </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Screeners/NH2021-12.xlsx
+++ b/Screeners/NH2021-12.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-09" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-10" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-12" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-14" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3405,4 +3406,660 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BLU </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARNA </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOL </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UVE </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LWLG </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CIEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KO </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FAST </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXPD </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AAPL </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSGS </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LSI </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JNPR </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QCOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PFE </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GGG </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EGP </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FR </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ED </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FE </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IRM </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLIN </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACC </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AIRC </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CYXT </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHRW </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTAS </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DHI </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CWT </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JBHT </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GIS </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACN </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MAA </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AWR </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PSA </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PI </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEP </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PG </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBV </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEG </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARE </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STAG </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MXL </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LOW </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KEYS </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQR </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TMHC </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LXP </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BXC </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DLR </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SPGI </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MTH </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITW </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NGG </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DRE </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXR </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLD </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPT </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EFX </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NSA </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCD </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Screeners/NH2021-12.xlsx
+++ b/Screeners/NH2021-12.xlsx
@@ -15,6 +15,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-10" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-12" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-14" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-15" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-151" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -832,6 +834,252 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SOLY </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSGS </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UVE </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNC </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FLR </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSN </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AIRC </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CIEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KO </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GOOD </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PFE </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRK-B </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GIS </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PG </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAND </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVS </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNP </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MLM </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCK </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DOGZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBV </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -4062,4 +4310,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SOLY </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSGS </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UVE </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNC </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FLR </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSN </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AIRC </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CIEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KO </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GOOD </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PFE </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRK-B </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GIS </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PG </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAND </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVS </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNP </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MLM </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCK </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DOGZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBV </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Screeners/NH2021-12.xlsx
+++ b/Screeners/NH2021-12.xlsx
@@ -17,6 +17,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-14" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-15" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-151" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-16" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1080,6 +1081,482 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITMR </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GCP </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UVE </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSGS </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TNDM </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PFE </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GOOD </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CWT </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TWNK </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LSI </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANET </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMPH </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNC </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DOGZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ROIC </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBV </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KO </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HBNC </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AVB </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPT </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GIS </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNH </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COST </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQR </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEP </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PSA </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARE </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBAC </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRK-B </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLD </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WTRG </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EGP </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PG </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OGE </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DGX </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTSH </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DRE </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACGL </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GSK </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MAA </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ORLY </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NFG </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Screeners/NH2021-12.xlsx
+++ b/Screeners/NH2021-12.xlsx
@@ -18,6 +18,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-15" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-151" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-16" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-17" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-19" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-21" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1557,6 +1560,1504 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TCDA </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CUBI </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSV </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LWLG </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACN </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JWEL </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PFE </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JBL </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTSH </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PKI </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UVE </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IRM </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SCHW </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSD </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LLY </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANET </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLFD </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AVB </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HBNC </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NVT </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TM </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OGE </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LH </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FR </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEP </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MDLZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBV </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IBKR </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNC </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KO </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSGS </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PG </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> POR </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LSI </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GIS </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QCOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JXN </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GSK </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INFY </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CBRE </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLD </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNH </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TER </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GOOD </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FHI </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BNS </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PSA </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NI </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRK-B </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WTRG </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVS </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMPH </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AWR </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CYXT </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SNPS </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXC </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COST </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GWW </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACM </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSCO </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IEX </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBAC </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ORLY </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACBI </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AME </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARE </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EL </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SO </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SPGI </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MSI </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSY </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQR </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXPD </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEE </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNO </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CWT </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITW </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNP </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTM </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSN </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RMBS </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EPAY </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FDS </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CERN </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ROIV </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GOOD </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CYXT </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LSI </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WTRG </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSD </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FHI </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PG </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JBL </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MAA </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FLO </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KO </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSV </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLD </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSCO </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARE </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NSA </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXR </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTSH </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FR </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EW </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBAC </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACC </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IRM </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SO </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAND </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABT </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DLR </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PSA </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NGG </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TNDM </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GIS </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSNC </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MDLZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DGX </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STRNW </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMX </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SKM </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRG </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VRS </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITCI </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JWEL </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TCDA </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VCRA </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AVGO </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PFE </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> REAX </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AWR </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CYXT </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMX </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
